--- a/data/trans_bre/P16_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P16_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,02</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,86</t>
+          <t>10,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,39</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>78,27%</t>
+          <t>15,05</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>83,14%</t>
+          <t>107,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>124,26%</t>
+          <t>44,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>118,86%</t>
+          <t>117,82%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>50,09%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>121,24%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 13,05</t>
+          <t>1,87; 14,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 11,43</t>
+          <t>-2,59; 11,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,34; 16,51</t>
+          <t>2,73; 16,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,83; 28,06</t>
+          <t>-1,22; 14,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,8; 197,84</t>
+          <t>5,7; 23,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,11; 177,36</t>
+          <t>12,73; 307,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,79; 259,35</t>
+          <t>-19,48; 163,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>43,05; 275,04</t>
+          <t>15,96; 288,36</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-11,12; 160,04</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>32,89; 273,86</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,73</t>
+          <t>13,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,69</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,47</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>113,62%</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>86,03%</t>
+          <t>195,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>86,99%</t>
+          <t>101,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>88,16%</t>
+          <t>61,22%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>23,8%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>40,93%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 17,94</t>
+          <t>5,8; 21,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 13,0</t>
+          <t>-1,19; 16,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 16,6</t>
+          <t>-2,28; 17,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 17,86</t>
+          <t>-5,25; 13,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,86; 266,1</t>
+          <t>-3,84; 23,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 243,29</t>
+          <t>47,16; 567,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,78; 213,63</t>
+          <t>-22,57; 388,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,04; 204,99</t>
+          <t>-16,67; 212,72</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-26,28; 120,09</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-19,13; 164,79</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-10,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,2</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,57</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>101,12%</t>
+          <t>-25,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-27,59%</t>
+          <t>-33,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>110,09%</t>
+          <t>-70,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>73,01%</t>
+          <t>61,54%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-1,89%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-46,56%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 17,84</t>
+          <t>-18,31; 8,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 7,15</t>
+          <t>-30,28; 3,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 24,66</t>
+          <t>-9,29; 20,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 20,7</t>
+          <t>-20,07; 15,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-61,16; 680,3</t>
+          <t>-56,87; 3,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-76,42; 94,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 434,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-29,24; 296,0</t>
+          <t>-72,35; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-79,97; 423,16</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-82,95; 13,83</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>9,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,45</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,25</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>63,44%</t>
+          <t>126,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>104,43%</t>
+          <t>46,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>102,35%</t>
+          <t>83,6%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32,8%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>38,38%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,86; 13,1</t>
+          <t>4,36; 13,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 9,55</t>
+          <t>-0,69; 9,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 14,41</t>
+          <t>2,99; 14,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,79; 19,96</t>
+          <t>-1,36; 10,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,47; 169,33</t>
+          <t>-0,75; 15,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,87; 128,23</t>
+          <t>42,72; 253,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,59; 176,2</t>
+          <t>-6,68; 131,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>53,85; 182,53</t>
+          <t>19,82; 179,72</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-7,61; 90,92</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 97,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P16_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P16_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,84</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,67</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,18</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,41</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>15,05</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>107,16%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>44,73%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>117,82%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>50,09%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>121,24%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>7.844137150731642</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.684707117397158</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10.26439187704167</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.025612704583222</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>14.28536057852759</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.071558941508434</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.4531307146959149</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.148644602952541</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.4567434399522605</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.109144418395734</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,87; 14,51</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 11,65</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,73; 16,96</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,22; 14,48</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>5,7; 23,17</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>12,73; 307,65</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-19,48; 163,08</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>15,96; 288,36</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-11,12; 160,04</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>32,89; 273,86</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.867782354562709</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.67756234096999</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2.549596814535652</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.805456526251279</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>4.686255230475156</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.1273362483863304</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.200639500173831</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1654118133872975</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1288259251300118</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.2489001809379173</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.51396121537273</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.5683199035381</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>17.31877624235998</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>14.34414193088664</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>23.01284140855301</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>3.076487178149959</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.630978444875459</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.837975977282533</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.562692064698862</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.602204074358824</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>13,29</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,84</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,03</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,83</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,96</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>195,15%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>101,15%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>61,22%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>23,8%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>40,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>5,8; 21,29</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,19; 16,93</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,28; 17,44</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,25; 13,22</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-3,84; 23,13</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>47,16; 567,09</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-22,57; 388,54</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-16,67; 212,72</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-26,28; 120,09</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-19,13; 164,79</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>13.28866937052713</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>8.909592395582838</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>8.653079242275389</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.801272456987643</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>8.523640608314157</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.951493951693457</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.12363589413728</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.7010493299895089</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.3019801458424061</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.4718278983791458</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,51</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-10,73</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,28</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-25,1</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-33,04%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-70,37%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>61,54%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-1,89%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-46,56%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>5.799652377517848</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.082741922827259</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.55867768377621</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.081611202935848</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-2.681175711572329</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.4715761838343662</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2577663587773258</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1729943013991865</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2467594291359552</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1591264178364439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-18,31; 8,05</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-30,28; 3,02</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,29; 20,93</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-20,07; 15,59</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-56,87; 3,91</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-72,35; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-79,97; 423,16</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-82,95; 13,83</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>21.28925523402462</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>16.69847265577999</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>17.9963298351351</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>14.77934215327686</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>22.10951824784438</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.670900520132666</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>4.201173402804394</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.363264212835301</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.412481193642891</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.636615350769428</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>9,05</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,78</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,67</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,65</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>126,65%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>46,66%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>83,6%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>32,8%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>38,38%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.510369222247965</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-9.428287050837087</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.433586183028892</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.065796309555136</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-24.21574325418751</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.3303640601541695</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.656777416808515</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.6701925544336771</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1714626794072532</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.4489823356449993</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4,36; 13,54</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 9,8</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,99; 14,36</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 10,48</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,75; 15,75</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>42,72; 253,22</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-6,68; 131,19</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>19,82; 179,72</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-7,61; 90,92</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 97,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-18.31150126210598</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-28.5289011397828</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.506659872016055</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-16.19267732167608</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-56.97108239229557</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.7148080991458237</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.7675271317178911</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.8341088331748108</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.052417859942844</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.257299649498175</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>21.29959078307694</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>17.66433445792962</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>4.279037006663131</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="n">
+        <v>5.344413645696497</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.1327892617594811</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>9.049833038758932</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>5.003823659429789</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>9.04009437281937</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.07408727236233</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>7.468332768963301</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.266508954342271</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.5143834806861942</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.8769673172666448</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.3570680414159191</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.3783688613636225</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.355360317712171</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3961085431527462</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3.103592375469284</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.9914912104620603</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.8672277151358989</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.4271571049822075</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.03724159194812998</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2028276891093247</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.07632267992039696</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.05053620622717463</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>13.54491580963121</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.984977319991581</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>14.57830901021848</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>11.05998372212101</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>15.30656588814408</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>2.532175623963149</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.376256416016523</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.899996531662404</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.9491012157091504</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.9506053008225048</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1103,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
